--- a/app/config/tables/medicacao_previa/forms/medicacao_previa/medicacao_previa.xlsx
+++ b/app/config/tables/medicacao_previa/forms/medicacao_previa/medicacao_previa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\medicacao_previa\forms\medicacao_previa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629DF041-1BE9-4277-A17B-6E6D56BF42AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B5F786-D30F-4E3F-BC9A-D948646C4A2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13035" yWindow="14055" windowWidth="13680" windowHeight="4410" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13035" yWindow="14055" windowWidth="13680" windowHeight="4410" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="114">
   <si>
     <t>type</t>
   </si>
@@ -379,6 +379,9 @@
   </si>
   <si>
     <t>nome_medicamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não introduza acentos e sinais especias (~^´`¨) </t>
   </si>
 </sst>
 </file>
@@ -971,7 +974,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1048,11 +1051,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1168,7 +1171,7 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18" t="s">
@@ -1182,6 +1185,9 @@
         <v>66</v>
       </c>
       <c r="H4" s="18"/>
+      <c r="I4" s="2" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B5" s="18"/>

--- a/app/config/tables/medicacao_previa/forms/medicacao_previa/medicacao_previa.xlsx
+++ b/app/config/tables/medicacao_previa/forms/medicacao_previa/medicacao_previa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\medicacao_previa\forms\medicacao_previa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B5F786-D30F-4E3F-BC9A-D948646C4A2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7842D3-BA7F-484F-BF47-75127A215FBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13035" yWindow="14055" windowWidth="13680" windowHeight="4410" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14040" yWindow="15105" windowWidth="13680" windowHeight="4410" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="model" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">survey!$D$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">survey!$D$1:$M$1</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="116">
   <si>
     <t>type</t>
   </si>
@@ -291,9 +291,6 @@
     <t>Retal</t>
   </si>
   <si>
-    <t>Vaginal</t>
-  </si>
-  <si>
     <t>outro</t>
   </si>
   <si>
@@ -342,9 +339,6 @@
     <t>Especifica a unidade da dose</t>
   </si>
   <si>
-    <t>data('via')=='10'</t>
-  </si>
-  <si>
     <t>mg (miligramos)</t>
   </si>
   <si>
@@ -382,6 +376,18 @@
   </si>
   <si>
     <t xml:space="preserve">Não introduza acentos e sinais especias (~^´`¨) </t>
+  </si>
+  <si>
+    <t>display.adate.fromYear</t>
+  </si>
+  <si>
+    <t>display.adate.toYear</t>
+  </si>
+  <si>
+    <t>data('date_end')&gt;=data('date_start')</t>
+  </si>
+  <si>
+    <t>data('via')=='9'</t>
   </si>
 </sst>
 </file>
@@ -1030,10 +1036,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1049,13 +1055,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:W22"/>
+  <dimension ref="A1:Y24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1069,15 +1075,17 @@
     <col min="7" max="7" width="63" style="2" customWidth="1"/>
     <col min="8" max="8" width="22.125" style="2" customWidth="1"/>
     <col min="9" max="9" width="29.75" style="2" customWidth="1"/>
-    <col min="10" max="10" width="24.125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.75" style="5"/>
-    <col min="12" max="12" width="28.5" style="2" customWidth="1"/>
-    <col min="13" max="13" width="17" style="2" customWidth="1"/>
-    <col min="14" max="14" width="60" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="10.75" style="2"/>
+    <col min="10" max="10" width="14.375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="24.125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.75" style="5"/>
+    <col min="14" max="14" width="28.5" style="2" customWidth="1"/>
+    <col min="15" max="15" width="17" style="2" customWidth="1"/>
+    <col min="16" max="16" width="60" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>49</v>
       </c>
@@ -1105,50 +1113,56 @@
       <c r="I1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="L1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>23</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>24</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>25</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>27</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>28</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>29</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>30</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>31</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>17</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="6"/>
@@ -1157,10 +1171,10 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="L2" s="3"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
         <v>40</v>
       </c>
@@ -1171,7 +1185,7 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:23" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18" t="s">
@@ -1186,10 +1200,10 @@
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18" t="s">
@@ -1203,8 +1217,14 @@
         <v>69</v>
       </c>
       <c r="H5" s="18"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="J5" s="2">
+        <v>2020</v>
+      </c>
+      <c r="K5" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18" t="s">
@@ -1218,8 +1238,17 @@
         <v>70</v>
       </c>
       <c r="H6" s="18"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="J6" s="2">
+        <v>2020</v>
+      </c>
+      <c r="K6" s="2">
+        <v>2020</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="18" t="s">
@@ -1236,161 +1265,168 @@
       </c>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>73</v>
       </c>
       <c r="H10" s="18"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="18" t="s">
-        <v>95</v>
-      </c>
       <c r="H11" s="18"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D14" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="H16" s="18"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>100</v>
-      </c>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="18"/>
+      <c r="D18" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="D19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D20" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D22" s="2"/>
-      <c r="F22" s="2"/>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D24" s="2"/>
+      <c r="F24" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="D1:K1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="D1:M1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
@@ -1404,10 +1440,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:D187"/>
+  <dimension ref="A1:D186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B13" sqref="B13:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1562,117 +1598,110 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="2">
-        <v>10</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>84</v>
-      </c>
+      <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B18" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B19" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B20" s="2">
-        <v>3</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>103</v>
+        <v>4</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B21" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B22" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B23" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B24" s="2">
-        <v>7</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>107</v>
+        <v>8</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B25" s="2">
-        <v>8</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>108</v>
+        <v>9</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" s="2">
-        <v>9</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>109</v>
-      </c>
+      <c r="A26" s="1"/>
+      <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
@@ -1680,13 +1709,13 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
+      <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
@@ -1914,10 +1943,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
-      <c r="C87" s="1"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="1"/>
+      <c r="C163" s="1"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
@@ -2010,10 +2039,6 @@
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="C186" s="1"/>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="1"/>
-      <c r="C187" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2236,7 +2261,7 @@
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2273,18 +2298,18 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>93</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2292,7 +2317,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2300,7 +2325,7 @@
         <v>47</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2308,7 +2333,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2316,7 +2341,7 @@
         <v>47</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2324,7 +2349,7 @@
         <v>47</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">

--- a/app/config/tables/medicacao_previa/forms/medicacao_previa/medicacao_previa.xlsx
+++ b/app/config/tables/medicacao_previa/forms/medicacao_previa/medicacao_previa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\medicacao_previa\forms\medicacao_previa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7842D3-BA7F-484F-BF47-75127A215FBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8B5308-3637-4CB6-BECE-AA2E1749877A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14040" yWindow="15105" windowWidth="13680" windowHeight="4410" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="1875" windowWidth="27360" windowHeight="19080" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">survey!$D$1:$M$1</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="117">
   <si>
     <t>type</t>
   </si>
@@ -388,6 +388,9 @@
   </si>
   <si>
     <t>data('via')=='9'</t>
+  </si>
+  <si>
+    <t>inclusaoformID</t>
   </si>
 </sst>
 </file>
@@ -1057,7 +1060,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2238,8 +2241,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2353,8 +2356,12 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>

--- a/app/config/tables/medicacao_previa/forms/medicacao_previa/medicacao_previa.xlsx
+++ b/app/config/tables/medicacao_previa/forms/medicacao_previa/medicacao_previa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\medicacao_previa\forms\medicacao_previa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8B5308-3637-4CB6-BECE-AA2E1749877A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEBD873-7F48-468F-9BCF-B4F0D7A6337E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="1875" windowWidth="27360" windowHeight="19080" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="330" yWindow="8550" windowWidth="19500" windowHeight="13905" tabRatio="500" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="119">
   <si>
     <t>type</t>
   </si>
@@ -219,27 +219,12 @@
     <t>fieldName</t>
   </si>
   <si>
-    <t>concat(data('letra_sticker'),data('numero_sticker'))</t>
-  </si>
-  <si>
-    <t>codigo_manual</t>
-  </si>
-  <si>
-    <t>ano_em_mes</t>
-  </si>
-  <si>
-    <t>(data('ano')*12) + data('mes')</t>
-  </si>
-  <si>
     <t>medicacao_previa</t>
   </si>
   <si>
     <t>Medicação prévia</t>
   </si>
   <si>
-    <t>nome_Medicamento</t>
-  </si>
-  <si>
     <t>Nome genérico do medicamento</t>
   </si>
   <si>
@@ -384,13 +369,34 @@
     <t>display.adate.toYear</t>
   </si>
   <si>
-    <t>data('date_end')&gt;=data('date_start')</t>
-  </si>
-  <si>
     <t>data('via')=='9'</t>
   </si>
   <si>
     <t>inclusaoformID</t>
+  </si>
+  <si>
+    <t>diferenca</t>
+  </si>
+  <si>
+    <t>assign</t>
+  </si>
+  <si>
+    <t>date_form</t>
+  </si>
+  <si>
+    <t>adate.today()</t>
+  </si>
+  <si>
+    <t>calculates.diferenca()&lt;0</t>
+  </si>
+  <si>
+    <t>erro_datas</t>
+  </si>
+  <si>
+    <t>A data do fim "{{data('date_end')}}" não deve ser menor que a data do inicio "{{data('date_start')}}</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('date_end'), data('date_start'))</t>
   </si>
 </sst>
 </file>
@@ -984,7 +990,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1010,7 +1016,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1026,7 +1032,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1034,15 +1040,15 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1058,13 +1064,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y24"/>
+  <dimension ref="A1:Y27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1117,10 +1123,10 @@
         <v>19</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="L1" t="s">
         <v>2</v>
@@ -1196,14 +1202,14 @@
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="18" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -1214,10 +1220,10 @@
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="18" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H5" s="18"/>
       <c r="J5" s="2">
@@ -1227,7 +1233,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18" t="s">
@@ -1235,10 +1241,10 @@
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H6" s="18"/>
       <c r="J6" s="2">
@@ -1246,9 +1252,6 @@
       </c>
       <c r="K6" s="2">
         <v>2020</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -1261,10 +1264,10 @@
         <v>36</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H7" s="18"/>
     </row>
@@ -1277,156 +1280,191 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="D9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="18"/>
+    <row r="10" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="H11" s="18"/>
+      <c r="B11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D12" s="2" t="s">
+      <c r="B12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" s="18"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="D15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="D16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C18" s="18"/>
-      <c r="D18" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="H18" s="18"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="D19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D20" s="2" t="s">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C21" s="18"/>
+      <c r="D21" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
+      <c r="F23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D24" s="2"/>
       <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D27" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="D1:M1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -1503,101 +1541,101 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B8" s="2">
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B9" s="2">
         <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B10" s="2">
         <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B11" s="2">
         <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B12" s="2">
         <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B13" s="2">
         <v>7</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B14" s="2">
         <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B15" s="2">
         <v>9</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1605,101 +1643,101 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B18" s="2">
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B19" s="2">
         <v>3</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B20" s="2">
         <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B21" s="2">
         <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B22" s="2">
         <v>6</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B23" s="2">
         <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B24" s="2">
         <v>8</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B25" s="2">
         <v>9</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2193,8 +2231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02CAEF6-746F-4DFF-99B1-6DB036574858}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2213,19 +2251,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -2241,8 +2275,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2264,7 +2298,7 @@
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2272,7 +2306,7 @@
         <v>47</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2280,7 +2314,7 @@
         <v>50</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2288,7 +2322,7 @@
         <v>50</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2296,23 +2330,23 @@
         <v>8</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2320,7 +2354,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2328,7 +2362,7 @@
         <v>47</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2336,7 +2370,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2344,7 +2378,7 @@
         <v>47</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2352,7 +2386,7 @@
         <v>47</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2360,7 +2394,7 @@
         <v>47</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">

--- a/app/config/tables/medicacao_previa/forms/medicacao_previa/medicacao_previa.xlsx
+++ b/app/config/tables/medicacao_previa/forms/medicacao_previa/medicacao_previa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\medicacao_previa\forms\medicacao_previa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEBD873-7F48-468F-9BCF-B4F0D7A6337E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF28B6D2-68E1-4453-88F9-C8041B92AB15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="8550" windowWidth="19500" windowHeight="13905" tabRatio="500" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2700" yWindow="7755" windowWidth="19500" windowHeight="10185" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="136">
   <si>
     <t>type</t>
   </si>
@@ -393,10 +393,61 @@
     <t>erro_datas</t>
   </si>
   <si>
-    <t>A data do fim "{{data('date_end')}}" não deve ser menor que a data do inicio "{{data('date_start')}}</t>
-  </si>
-  <si>
-    <t>adate.diffInDays(data('date_end'), data('date_start'))</t>
+    <t>data_form</t>
+  </si>
+  <si>
+    <t>date_form_display</t>
+  </si>
+  <si>
+    <t>adate.display(calculates.date_form())</t>
+  </si>
+  <si>
+    <t>nao_futuro_end</t>
+  </si>
+  <si>
+    <t>nao_futuro_start</t>
+  </si>
+  <si>
+    <t>calculates.nao_futuro_end()&lt;0</t>
+  </si>
+  <si>
+    <t>calculates.nao_futuro_start()&lt;0</t>
+  </si>
+  <si>
+    <t>erro_data_fim</t>
+  </si>
+  <si>
+    <t>corrija a data por favor</t>
+  </si>
+  <si>
+    <t>erro_data_inicio</t>
+  </si>
+  <si>
+    <t>A data do fim {{data.date_end}} não deve ser menor que a data do inicio {{data.date_start}}</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('date_start'),data('date_end'))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('date_end'),calculates.data_form())</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('date_start'),calculates.data_form())</t>
+  </si>
+  <si>
+    <t>A data não deve ser no futuro porque hoje é {{calculates.data_form}} que é menor do que a data do inicio {{data.date_start}}</t>
+  </si>
+  <si>
+    <t>A data não deve ser no futuro porque hoje é {{calculates.data_form}} que é menor do que a data do fim {{data.date_end}}</t>
+  </si>
+  <si>
+    <t>erro_data</t>
+  </si>
+  <si>
+    <t>calculates.nao_futuro_end()&lt;0 || calculates.nao_futuro_start()&lt;0</t>
+  </si>
+  <si>
+    <t>!calculates.erro_data()</t>
   </si>
 </sst>
 </file>
@@ -522,7 +573,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -558,9 +609,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1064,13 +1112,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y27"/>
+  <dimension ref="A1:Y36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9:XFD11"/>
+      <selection pane="bottomRight" activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1184,48 +1232,48 @@
       <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18" t="s">
+      <c r="E4" s="17"/>
+      <c r="F4" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="18"/>
+      <c r="H4" s="17"/>
       <c r="I4" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18" t="s">
+      <c r="E5" s="17"/>
+      <c r="F5" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="18"/>
+      <c r="H5" s="17"/>
       <c r="J5" s="2">
         <v>2020</v>
       </c>
@@ -1234,19 +1282,19 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18" t="s">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18" t="s">
+      <c r="E6" s="17"/>
+      <c r="F6" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="18"/>
+      <c r="H6" s="17"/>
       <c r="J6" s="2">
         <v>2020</v>
       </c>
@@ -1255,21 +1303,21 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18" t="s">
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="18"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
@@ -1296,7 +1344,7 @@
         <v>116</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -1308,161 +1356,218 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D13" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F16" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18" t="s">
+      <c r="D21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18" t="s">
+      <c r="E22" s="17"/>
+      <c r="F22" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G22" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="18"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18" t="s">
+      <c r="H22" s="17"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18" t="s">
+      <c r="E23" s="17"/>
+      <c r="F23" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G23" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="H14" s="18"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D15" s="2" t="s">
+      <c r="H23" s="17"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D17" s="2" t="s">
+      <c r="D25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D26" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+      <c r="D27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C21" s="18"/>
-      <c r="D21" s="18" t="s">
+      <c r="D28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C30" s="17"/>
+      <c r="D30" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E30" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F30" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G30" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="H21" s="18"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
+      <c r="H30" s="17"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D23" s="2" t="s">
+      <c r="D31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D32" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D25" s="2" t="s">
+      <c r="D33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D34" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D27" s="2" t="s">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D36" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="P27" s="2" t="s">
+      <c r="P36" s="2" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2116,47 +2221,47 @@
     <col min="11" max="11" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H3" s="16"/>
+      <c r="H3" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2229,10 +2334,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02CAEF6-746F-4DFF-99B1-6DB036574858}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2250,23 +2355,60 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="15"/>
+      <c r="B4" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2302,50 +2444,50 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2366,10 +2508,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>79</v>
       </c>
     </row>
